--- a/Testdata/TC_27.xlsx
+++ b/Testdata/TC_27.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Jh0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE3d12ZjaJKr3yLVkLO45sh0z2BZW7K3GRdrfpqk7it0UCLVoWIYRm0XIVT4uQGEawKy0zXP7LapIZnvgLnLr0zXZ20mEUTbrO+U7VqVPnVhX07vXcNy5JxGgY7FXsmlUxSOCGHg3O9yoxP6vajyvvOqh77RL/CEd4TjiADZAK2O41o3uVGeeLXdO8urqqXTVqYXRu1i3LNp8M+mN3Rua4SgPGceCSSirlvV2q4qC2Nx8Qjj3MsZLcq/TGvVqbULcDtAEO8DmJaq2Y0YAw1g045ZQwIRkRzEm7M/iO2phTrz2u2chco2fIVkx9T+EKSEXXOFiWTOicOHXL3q5a29WGNbHru1s7u/Wdmt2w308EUyDqY8bHJLqkriSMOZ4vpLi13bDs+tZOfQeZG0EwV2YABw19b0QuKSNem/g+K2URUx9g0+Ww63LGtJCZk9UTPVyFgwgvZhPKfVJOjdGgZcwDrUs2iYP2w4i4YL8HqXRIroaRNutk0QfuZEYjvuzgZem5jhmJhgthpHKiDuqEAW/6JOLHCzhr4oErAMPhUUyQeQczE+pQ5sI3DWLiOWfYZ3mhAhOdhNEFW2CXHEIcm2KOq8APsQcOxynj1M0WXWOgoyhcwIyweCv0vX2YVYM3MNKZewGYWCzbCsOLTLtNTCRPVZ4vnOkc8wS+RkfjWXg1DPzlOJ4yN6JT4nVaCXojD4mA1NLtmPFwDlpkJKRoOcoS/kEArpJRh7h0jv0jH4zInAbMUiCgZszDM8rboR/PA5botEJFJ7CjCblODJgO0RDONhA2D4NekMAVaCOrKDAKr9Il1xnSBjlyk7nJaa8zVsEdoCWnt86RByI2uU99KA/5o8hRi04xnhHCN3qE4iCRCfdFwXFay8N4PoXomkKIXcpVGTIzPgI3BVcHvRwLikhV/kwsa1f+gB4pG3UD725cwkSwXG4txwbeCgnBnvyWj4MLoJ5QPjtsJnvZwEHKAnfi13kIAnfh46Ukp1bK01AvcP3YIyof9IIz6aFCN3Wod7LRGqkPIe4gHCwnywWkZUZ3OXzsVaBQ7zIeQStQcdwwDni0FIkDmRr6NhkWTwO5APbvLXMWke/H0IEs9+PAbYfe/VfzlHWOA8rvr2EYRyob3l9EWk8kxph1iEgxMuffW94tsycWlYLPAzIPA+re39pgZKG994CNsCSq7i1BVHzdG+9DWVdVT8T6vcUiaB+hzpVapslY6FLprDo8vJy8eUfIdMgZjn1o3ThU2PM0966SUZNdrGLyJHQc+UkGdERjzKAzdr15zYXeQXR/NTecC4IJDenJGJl5vGiAXNINzvs4OI+hxUjzyio9zb+iPE4iHDCxnbSjWEnFm0EoyVOq03FU8hrG0hFU8gqBi8wVHJqQ+SKMsD8Aw9B97Xa6XYJOZID5TI+gtvnETYxsZqKpVFGzRPG3wWSRUtsQAa/T5ApRgsReVA+eYTIaErscQFj6bezTaaSyqlZiIw8OLOsNk/wrNleyT0zOAO5hUH2/TZaiOc8Gmi5d1k4YyoFFInXGo63t+iOrUYfGRoyR3PGIYN/oQjBzYvSCS8L4HMR2jRFh1IMviv1d4z0yJRSKoDSRLkOlpfNyaD/J81KVJuhbpBQB0G+cUygj68CUkwk4pwRH/jIHVFvthy7gbn/875vfPH/14rPbj56++eKH//3Hr17982c3z34EH7d//dvNx79U21RgNMFTn0iFJq3tbauxBX6WkpAwrik7Yy92uaSdnsqGOB0jfa+Tg3a31z7ot2Q+SYmJuCopprgyLsM4G47VJuRC8kjNxBMUxJkk+UmPC9xciXLEFe6SFNF5/l2CyhavX372+uWf75TWBst6LXtn51HVrr+1FYPLsL2GS1uxfqEGCPBW1XpUrddz4BUMGqkCkNqp5zkN29qx6nDjTnO5lzryJtAqS880wefmipwitVV7lLpAfpwwpeNPIERStgqF3EC76Bc/efOXpwWUtq6mFGcB5WQbIxYzk4Gc+nA0McbD41G7a0y6Y+EnGS+HU5N/DVivnsZTwamCIMb+twwo7lDMjApciCpGeGYQ7M6MJURiLg4LzraJqhZ64JSrWh5EYbxQJ5ITyKgbkGk22SixIddInrTnWtLJWBvgStebv3++SUBvpJM1tOnzR56GChxFyvF11H76r1dffvjqxYvb5z+/+fIHhRn0OumrAPg5RFN+mLo9pDxdb1Yo6GQsjXlhfTdXXzRRXKSOQhpw5tiP5R1KjxCI2mI2+Rv15lDy5MTSXkBfoaD3MOtecx3YziEyiwTQc4Gh2obZ3TMlqBye2fU/v/3d7a8/v/3k+ZsP/3Tz0R9vPv7k9cvfv3n2BxV1t0+f3/70mc7yq4VA6iJutKoJNOTziGuIaDRE7Ta++uAXRhByA1oOI5YZ6asPPs1NJhSVzUk2M7R0qSJFFdageWEhZ+RUSXUoyKUiqgFoixLWSBG6iIUL6maLvF8VU4m4k4xv9CbVmBEjhG7qm7CTIjgTvq+cFlEl9egdq27XNVdpI7YwxSxn+gM/nEKTkTDkA8QKpCD19QIZVq530B+2mv0MopQYRh6JhBuqD5S0lKKk9FgySlwtRwEuNH5u7IsnozXYOiudOZfGTP34ctb0RPrb/FRRQKB2HEWqIQr0U/44XkAznDww3c2Xr5a5/vdQ9ar5jjgb9zpFPoxzXCiERbYgSL5MTZql0lSPiXce1c4eCtNkQ+AVXjrBHPq1XnVal9BXRqbIO90oCqONySfjJLABdNKQUczM4ilGnqnqur3srBJCkvDSD3Xz0zsMO8QnvNxTtplJD8LLB8vC2ZcV7bGh72ljlrt6pGbJJsi/5wtH+X+f85WzNaMIGivxAFj6/T25uI7gvltSG7UVKShugLC6fiDfpxHjT0Qm0F+KcppSTlWH+kRcuNSHHJ86jUeKAAAzP7tZUDMJXa7+qhL6fTqnJa+FVhLfxUnAlouFauF65TxFlJZDcg0NZm4GSIrT70HZUO8oZWZTDgu5NJUXb5eMns94WcXemWLikalVdaekXt3yrO3qDiGNqm3D/9it1y3rkXj51JND5qDkquQiZnJg2V87nf8By4HADSYdAAA=</t>
+          <t>Hx8AAB+LCAAAAAAAAAOlWetvG8cR/1cO/NQCpe6OlGRJWF/Alxyi1AMiVVv5UizvltJWxz32dk8Sv6VAghRpiqIonCJ9op9SFKhrtAmQ2n38L4Elu5/6L3T2cS+SinWqIcC3M/ObnZ2dnZldoneupqF1QWJOI/aw5q45NYswPwooO31YS8Sk7m7W3vFQ78on4SGO8ZQIELYAxfjOFacPa2dCzHZs+/Lycu2yuRbFp3bDcVz7yd5g6J+RKa5TxgVmPqllqODtqJqHOsF0jwgcYIE18mGtP+yvdQj1u0DbwwyfknitnXDKCOc9JqighEtkTLAgne7e9/TCvMba5pqL7CV6LtlOaBhouZKkphs5mJaM6JR4Dafh1J2temN95Lo769s7TcA1N99LgZkgGmAuhiS+oL4iDAWezhTc2Wqsu+76dnMT2SuFQFfuAA8dhMERuaCcBB0ShrySR2yzgS1fwKqrOdNBdgFrFN3fhEcxnp2NqAhJVfhuFBMfHHWvuffJ5UFs/DeaDYA7OqOxmHfxvLKuY07ig5n0RjWoh7oRE62QxOJ4BptKAthzYHgiTgiyb2HmoC7lPnxTlpDAm+CQF0ElJnocxed8hn2yDwfWljouWRjhACJLUC6on0+6xECHcTQDjTB5OwqDXdBqhFcwMs19Bi6W07aj6Dy3bhUTqRhQ0QB7OsUiFV+io+FZdHnAwvkwGXM/pmMSdNup9EoekifPoDsJF9EUrMhJSNMKlDn8g5O2SEZd4tMpDg9DcCL3mqClRECtREQTKjpRmEwZT21aoKLHsKIRuUodmA3RAewtkz6PWJ+l4lpoJasMOIousymXGcoHBXKL++luLzMWhbtAS3dvmaM2RC5yl4ZQB4pbUaCWg2J4RohYGRGag2TK25WVxWvP95PpGE7XGI7YhZqVIzvnIwhTCHWwy3OgWtTV38hxdtQf2JGxUY8Ft8ulTATTFebyXOAtkBCsKWyHmJ0D9TEVZ/utdC0rOEh74Fb5ZR6CgzsL8VyRMy8VaajP/DAJiM4HfTZRESpt05t6KxstkQZwxD2E2Xw0n0H+5XRHwMfDGlTkHS5iqPk1z48SJuK5TBzINqJvw/BkzNQEOLwzZhKTHybQasx3E+Z3ouDuswXaO8eMirtbGCWxzoZ3hyjvycSY8C6RKUbl/Dvj/Spr4nEl8Skj04hR/+7eBidL64N7LISnp+rOCKLP153lQyjruurJs35nWAx9ItS5StO0OI98qoLVHI+ggLdvOTJdMsFJCD2agAp7muXeRTJq8fNFmSIJHcdhmgE92QFzaIH9YLrmQ+8g27w1P5pKgg2d5+MhsovysgHySY+dDjA7TaDFyPLKIj3Lv7I8jmLMuFxO1lEspOLVQijNU7rT8XTyOkhUIOjkFQEX2QtyaESmsyjG4R44hu6asDPtEnQie1icmRHUtpD4qZPtHJqhypalhr9NTBUpvQx54E2aXCAqIbkW3WznMjkNyVXuwbEMOzik41hnVWPESh5sWN4bpvlXLq5in5juAVy4oPp+l8xlF54PDF2FrJsydADLROoNj9a3GhtOswGNjRwjteIjgkOrB4dZEKvPLggXU4DtWEeE0wC+KA53rHfJmFAogspFpgxVRhdxaDfN88qUFthbppQFoN84pVBGlgUzTg7wTgiOw3lBUC91EPkgd/Pjf1//5vmrF5/ffPz0zZcf/Pcfv3r1z59dP/sQPm7++rfrT36pl6mF0QiPQ6IMGrW3tpzmOsRZRkLSubbqjIPEF4p2cqIa4myMzAVODTq9fufRoK3ySUZM4bqk2PJuOI+SfDjUi1ATqS2100jQIt4ozU9mXOIWSpQn72oXpCxd5N8G1L54/fLz1y//fCvaOCzvtdzt7Y2623hrK9ZwXHdJLmvFBqUaIIXX685GvdEoCC/IoCNdADI/9QOv6TrbTqPpuFkuD7JAXiW0yDKaRvjUXsBpUke3R1kIFMcpUwX+CI5IxtZHoTAwIfrlT9785WlJynjXUMpawDjVxsjJ7HSgVO8fjazhwfFRp2eNekMZJzmvIKeVf4OwmT07T6WgYizB4XcsKO5QzKwaXIhqVjSxCPbPrDmcxMI5LAXbKqqe6J4qF618FEfJTO9IAZBTV0hm2WQlYkWuUTzlz6Wkk7NWiGtbr//+xSqAWUg3b2i9o722NWVZXCoaKnE0qcA3p/azf7366qNXL17cPP/59Vc/Kmkw82SvAhDncJqKwyzsIeWZerNAQY+HypnnzvcL9cUQ5UXqMKJMcM/dVHcoM0IAdaU29T/qT6HkKcXKX0BfoKB3Me9dCXOwvX1klwlg5wxDtY3yu2dG0Dk89+t/fvu7m19/cfPp8zcf/en64z9ef/Lp65e/f/PsD/rU3Tx9fvPTZybLLxYCZYu80eom0FLPI74lT6Mla7f19fu/sFgkLGg5rERlpK/f/6ygTBqqmpNcM7R0mSFlE5ZEi2CJswqmZDaUcBlENwAdWcKamYQpYtGM+vkk79WlKnnuFONb/VE94cSKoJv6NqykLJyD74ozEF1SDx84DbdhuNoauYQx5gXXPwqjMTQZKUM9QCyIlFDfDMhl1XyPBgft1iAX0UYcxAGJZRjqD9TnaVOZhleBAlxo9vwklM9ES2LLLJR+FVKXbR5cJq1AprzVzxMlCdRJ4lg3Qcy80w+TGTTA6aPS7Xz1Ulnoefd1f1rsgvNxv1vmw7jAheJXZkuC4qt0ZFg6NfW5fNvRLey+dE0+BF7pdRPcYZ7idXd1Ab1kbMtc04vjKF6ZcHJOKrYH3TNkETv3eCZjyyl1px3ke5US0iSXfejbnllh1CUhEZXfqVP0XnRxbyzsfVVonx+EgXFmtetG5pZcQfGxXgZKVWNacQxtk3zeq/y6PqDsvF9t9Z77YLxFCHaaAXEauLnV9DcejMdbTUIeOE0X1qaVytunVCFvLvLuVnESZJfh+T37CG7eFbVpByugvIuCp9SBNIk9G6NdGnPxRKYo86UpJxnlRLfOT6R9+kONT7zmhiaAgF2czC5ZneYXoX/XicIBndKK91UnTUJlJRAGs5nuLatuKNS8fXIFnW9BA2Tr8Q+gnukHnira9KmCJJ/hU13DZFxZnZ2CD4EvA+t+6F4Afdn90epXEhr+Hwaozuu+KvqM09MzUXVfG9vbTbJJGvXGxPfr6zCoQzUe1wM82XYdZ9IMNhryRdsoh+pAyWXFSWRNoRzuFdVx9sLP3N7/AL0HvnAfHwAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -532,7 +532,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>0.2499825759175085</v>
+        <v>0.2499825759175076</v>
       </c>
     </row>
     <row r="22">
@@ -767,4 +767,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>36</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6724D1C-30D8-4AD7-B2A4-9CFDED201D8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_27.xlsx
+++ b/Testdata/TC_27.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Hx8AAB+LCAAAAAAAAAOlWetvG8cR/1cO/NQCpe6OlGRJWF/Alxyi1AMiVVv5UizvltJWxz32dk8Sv6VAghRpiqIonCJ9op9SFKhrtAmQ2n38L4Elu5/6L3T2cS+SinWqIcC3M/ObnZ2dnZldoneupqF1QWJOI/aw5q45NYswPwooO31YS8Sk7m7W3vFQ78on4SGO8ZQIELYAxfjOFacPa2dCzHZs+/Lycu2yuRbFp3bDcVz7yd5g6J+RKa5TxgVmPqllqODtqJqHOsF0jwgcYIE18mGtP+yvdQj1u0DbwwyfknitnXDKCOc9JqighEtkTLAgne7e9/TCvMba5pqL7CV6LtlOaBhouZKkphs5mJaM6JR4Dafh1J2temN95Lo769s7TcA1N99LgZkgGmAuhiS+oL4iDAWezhTc2Wqsu+76dnMT2SuFQFfuAA8dhMERuaCcBB0ShrySR2yzgS1fwKqrOdNBdgFrFN3fhEcxnp2NqAhJVfhuFBMfHHWvuffJ5UFs/DeaDYA7OqOxmHfxvLKuY07ig5n0RjWoh7oRE62QxOJ4BptKAthzYHgiTgiyb2HmoC7lPnxTlpDAm+CQF0ElJnocxed8hn2yDwfWljouWRjhACJLUC6on0+6xECHcTQDjTB5OwqDXdBqhFcwMs19Bi6W07aj6Dy3bhUTqRhQ0QB7OsUiFV+io+FZdHnAwvkwGXM/pmMSdNup9EoekifPoDsJF9EUrMhJSNMKlDn8g5O2SEZd4tMpDg9DcCL3mqClRECtREQTKjpRmEwZT21aoKLHsKIRuUodmA3RAewtkz6PWJ+l4lpoJasMOIousymXGcoHBXKL++luLzMWhbtAS3dvmaM2RC5yl4ZQB4pbUaCWg2J4RohYGRGag2TK25WVxWvP95PpGE7XGI7YhZqVIzvnIwhTCHWwy3OgWtTV38hxdtQf2JGxUY8Ft8ulTATTFebyXOAtkBCsKWyHmJ0D9TEVZ/utdC0rOEh74Fb5ZR6CgzsL8VyRMy8VaajP/DAJiM4HfTZRESpt05t6KxstkQZwxD2E2Xw0n0H+5XRHwMfDGlTkHS5iqPk1z48SJuK5TBzINqJvw/BkzNQEOLwzZhKTHybQasx3E+Z3ouDuswXaO8eMirtbGCWxzoZ3hyjvycSY8C6RKUbl/Dvj/Spr4nEl8Skj04hR/+7eBidL64N7LISnp+rOCKLP153lQyjruurJs35nWAx9ItS5StO0OI98qoLVHI+ggLdvOTJdMsFJCD2agAp7muXeRTJq8fNFmSIJHcdhmgE92QFzaIH9YLrmQ+8g27w1P5pKgg2d5+MhsovysgHySY+dDjA7TaDFyPLKIj3Lv7I8jmLMuFxO1lEspOLVQijNU7rT8XTyOkhUIOjkFQEX2QtyaESmsyjG4R44hu6asDPtEnQie1icmRHUtpD4qZPtHJqhypalhr9NTBUpvQx54E2aXCAqIbkW3WznMjkNyVXuwbEMOzik41hnVWPESh5sWN4bpvlXLq5in5juAVy4oPp+l8xlF54PDF2FrJsydADLROoNj9a3GhtOswGNjRwjteIjgkOrB4dZEKvPLggXU4DtWEeE0wC+KA53rHfJmFAogspFpgxVRhdxaDfN88qUFthbppQFoN84pVBGlgUzTg7wTgiOw3lBUC91EPkgd/Pjf1//5vmrF5/ffPz0zZcf/Pcfv3r1z59dP/sQPm7++rfrT36pl6mF0QiPQ6IMGrW3tpzmOsRZRkLSubbqjIPEF4p2cqIa4myMzAVODTq9fufRoK3ySUZM4bqk2PJuOI+SfDjUi1ATqS2100jQIt4ozU9mXOIWSpQn72oXpCxd5N8G1L54/fLz1y//fCvaOCzvtdzt7Y2623hrK9ZwXHdJLmvFBqUaIIXX685GvdEoCC/IoCNdADI/9QOv6TrbTqPpuFkuD7JAXiW0yDKaRvjUXsBpUke3R1kIFMcpUwX+CI5IxtZHoTAwIfrlT9785WlJynjXUMpawDjVxsjJ7HSgVO8fjazhwfFRp2eNekMZJzmvIKeVf4OwmT07T6WgYizB4XcsKO5QzKwaXIhqVjSxCPbPrDmcxMI5LAXbKqqe6J4qF618FEfJTO9IAZBTV0hm2WQlYkWuUTzlz6Wkk7NWiGtbr//+xSqAWUg3b2i9o722NWVZXCoaKnE0qcA3p/azf7366qNXL17cPP/59Vc/Kmkw82SvAhDncJqKwyzsIeWZerNAQY+HypnnzvcL9cUQ5UXqMKJMcM/dVHcoM0IAdaU29T/qT6HkKcXKX0BfoKB3Me9dCXOwvX1klwlg5wxDtY3yu2dG0Dk89+t/fvu7m19/cfPp8zcf/en64z9ef/Lp65e/f/PsD/rU3Tx9fvPTZybLLxYCZYu80eom0FLPI74lT6Mla7f19fu/sFgkLGg5rERlpK/f/6ygTBqqmpNcM7R0mSFlE5ZEi2CJswqmZDaUcBlENwAdWcKamYQpYtGM+vkk79WlKnnuFONb/VE94cSKoJv6NqykLJyD74ozEF1SDx84DbdhuNoauYQx5gXXPwqjMTQZKUM9QCyIlFDfDMhl1XyPBgft1iAX0UYcxAGJZRjqD9TnaVOZhleBAlxo9vwklM9ES2LLLJR+FVKXbR5cJq1AprzVzxMlCdRJ4lg3Qcy80w+TGTTA6aPS7Xz1Ulnoefd1f1rsgvNxv1vmw7jAheJXZkuC4qt0ZFg6NfW5fNvRLey+dE0+BF7pdRPcYZ7idXd1Ab1kbMtc04vjKF6ZcHJOKrYH3TNkETv3eCZjyyl1px3ke5US0iSXfejbnllh1CUhEZXfqVP0XnRxbyzsfVVonx+EgXFmtetG5pZcQfGxXgZKVWNacQxtk3zeq/y6PqDsvF9t9Z77YLxFCHaaAXEauLnV9DcejMdbTUIeOE0X1qaVytunVCFvLvLuVnESZJfh+T37CG7eFbVpByugvIuCp9SBNIk9G6NdGnPxRKYo86UpJxnlRLfOT6R9+kONT7zmhiaAgF2czC5ZneYXoX/XicIBndKK91UnTUJlJRAGs5nuLatuKNS8fXIFnW9BA2Tr8Q+gnukHnira9KmCJJ/hU13DZFxZnZ2CD4EvA+t+6F4Afdn90epXEhr+Hwaozuu+KvqM09MzUXVfG9vbTbJJGvXGxPfr6zCoQzUe1wM82XYdZ9IMNhryRdsoh+pAyWXFSWRNoRzuFdVx9sLP3N7/AL0HvnAfHwAA</t>
+          <t>Jh0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE3d12ZjaJKr3yLVkLO45sh0z2BZW7K3GRdrfpqk7it0UCLVoWIYRm0XIVT4uQGEawKy0zXP7LapIZnvgLnLr0zXZ20mEUTbrO+U7VqVPnVhX07vXcNy5JxGgY7FXsmlUxSOCGHg3O9yoxP6vajyvvOqh77RL/CEd4TjiADZAK2O41o3uVGeeLXdO8urqqXTVqYXRu1i3LNp8M+mN3Rua4SgPGceCSSirlvV2q4qC2Nx8Qjj3MsZLcq/TGvVqbULcDtAEO8DmJaq2Y0YAw1g045ZQwIRkRzEm7M/iO2phTrz2u2chco2fIVkx9T+EKSEXXOFiWTOicOHXL3q5a29WGNbHru1s7u/Wdmt2w308EUyDqY8bHJLqkriSMOZ4vpLi13bDs+tZOfQeZG0EwV2YABw19b0QuKSNem/g+K2URUx9g0+Ww63LGtJCZk9UTPVyFgwgvZhPKfVJOjdGgZcwDrUs2iYP2w4i4YL8HqXRIroaRNutk0QfuZEYjvuzgZem5jhmJhgthpHKiDuqEAW/6JOLHCzhr4oErAMPhUUyQeQczE+pQ5sI3DWLiOWfYZ3mhAhOdhNEFW2CXHEIcm2KOq8APsQcOxynj1M0WXWOgoyhcwIyweCv0vX2YVYM3MNKZewGYWCzbCsOLTLtNTCRPVZ4vnOkc8wS+RkfjWXg1DPzlOJ4yN6JT4nVaCXojD4mA1NLtmPFwDlpkJKRoOcoS/kEArpJRh7h0jv0jH4zInAbMUiCgZszDM8rboR/PA5botEJFJ7CjCblODJgO0RDONhA2D4NekMAVaCOrKDAKr9Il1xnSBjlyk7nJaa8zVsEdoCWnt86RByI2uU99KA/5o8hRi04xnhHCN3qE4iCRCfdFwXFay8N4PoXomkKIXcpVGTIzPgI3BVcHvRwLikhV/kwsa1f+gB4pG3UD725cwkSwXG4txwbeCgnBnvyWj4MLoJ5QPjtsJnvZwEHKAnfi13kIAnfh46Ukp1bK01AvcP3YIyof9IIz6aFCN3Wod7LRGqkPIe4gHCwnywWkZUZ3OXzsVaBQ7zIeQStQcdwwDni0FIkDmRr6NhkWTwO5APbvLXMWke/H0IEs9+PAbYfe/VfzlHWOA8rvr2EYRyob3l9EWk8kxph1iEgxMuffW94tsycWlYLPAzIPA+re39pgZKG994CNsCSq7i1BVHzdG+9DWVdVT8T6vcUiaB+hzpVapslY6FLprDo8vJy8eUfIdMgZjn1o3ThU2PM0966SUZNdrGLyJHQc+UkGdERjzKAzdr15zYXeQXR/NTecC4IJDenJGJl5vGiAXNINzvs4OI+hxUjzyio9zb+iPE4iHDCxnbSjWEnFm0EoyVOq03FU8hrG0hFU8gqBi8wVHJqQ+SKMsD8Aw9B97Xa6XYJOZID5TI+gtvnETYxsZqKpVFGzRPG3wWSRUtsQAa/T5ApRgsReVA+eYTIaErscQFj6bezTaaSyqlZiIw8OLOsNk/wrNleyT0zOAO5hUH2/TZaiOc8Gmi5d1k4YyoFFInXGo63t+iOrUYfGRoyR3PGIYN/oQjBzYvSCS8L4HMR2jRFh1IMviv1d4z0yJRSKoDSRLkOlpfNyaD/J81KVJuhbpBQB0G+cUygj68CUkwk4pwRH/jIHVFvthy7gbn/875vfPH/14rPbj56++eKH//3Hr17982c3z34EH7d//dvNx79U21RgNMFTn0iFJq3tbauxBX6WkpAwrik7Yy92uaSdnsqGOB0jfa+Tg3a31z7ot2Q+SYmJuCopprgyLsM4G47VJuRC8kjNxBMUxJkk+UmPC9xciXLEFe6SFNF5/l2CyhavX372+uWf75TWBst6LXtn51HVrr+1FYPLsL2GS1uxfqEGCPBW1XpUrddz4BUMGqkCkNqp5zkN29qx6nDjTnO5lzryJtAqS880wefmipwitVV7lLpAfpwwpeNPIERStgqF3EC76Bc/efOXpwWUtq6mFGcB5WQbIxYzk4Gc+nA0McbD41G7a0y6Y+EnGS+HU5N/DVivnsZTwamCIMb+twwo7lDMjApciCpGeGYQ7M6MJURiLg4LzraJqhZ64JSrWh5EYbxQJ5ITyKgbkGk22SixIddInrTnWtLJWBvgStebv3++SUBvpJM1tOnzR56GChxFyvF11H76r1dffvjqxYvb5z+/+fIHhRn0OumrAPg5RFN+mLo9pDxdb1Yo6GQsjXlhfTdXXzRRXKSOQhpw5tiP5R1KjxCI2mI2+Rv15lDy5MTSXkBfoaD3MOtecx3YziEyiwTQc4Gh2obZ3TMlqBye2fU/v/3d7a8/v/3k+ZsP/3Tz0R9vPv7k9cvfv3n2BxV1t0+f3/70mc7yq4VA6iJutKoJNOTziGuIaDRE7Ta++uAXRhByA1oOI5YZ6asPPs1NJhSVzUk2M7R0qSJFFdageWEhZ+RUSXUoyKUiqgFoixLWSBG6iIUL6maLvF8VU4m4k4xv9CbVmBEjhG7qm7CTIjgTvq+cFlEl9egdq27XNVdpI7YwxSxn+gM/nEKTkTDkA8QKpCD19QIZVq530B+2mv0MopQYRh6JhBuqD5S0lKKk9FgySlwtRwEuNH5u7IsnozXYOiudOZfGTP34ctb0RPrb/FRRQKB2HEWqIQr0U/44XkAznDww3c2Xr5a5/vdQ9ar5jjgb9zpFPoxzXCiERbYgSL5MTZql0lSPiXce1c4eCtNkQ+AVXjrBHPq1XnVal9BXRqbIO90oCqONySfjJLABdNKQUczM4ilGnqnqur3srBJCkvDSD3Xz0zsMO8QnvNxTtplJD8LLB8vC2ZcV7bGh72ljlrt6pGbJJsi/5wtH+X+f85WzNaMIGivxAFj6/T25uI7gvltSG7UVKShugLC6fiDfpxHjT0Qm0F+KcppSTlWH+kRcuNSHHJ86jUeKAAAzP7tZUDMJXa7+qhL6fTqnJa+FVhLfxUnAlouFauF65TxFlJZDcg0NZm4GSIrT70HZUO8oZWZTDgu5NJUXb5eMns94WcXemWLikalVdaekXt3yrO3qDiGNqm3D/9it1y3rkXj51JND5qDkquQiZnJg2V87nf8By4HADSYdAAA=</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -532,7 +532,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>0.2499825759175076</v>
+        <v>0.2499825759175085</v>
       </c>
     </row>
     <row r="22">
@@ -767,37 +767,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6724D1C-30D8-4AD7-B2A4-9CFDED201D8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>